--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.810110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.810110.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2802F16-7ECA-474C-A871-CA5043A8B840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96E51E3-0666-4954-B15E-75B9A058246C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T064737.164" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T065220.223" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.810110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.810110.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96E51E3-0666-4954-B15E-75B9A058246C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93EF4A62-A61E-4DC2-A07A-34F83AC29F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T065220.223" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T065608.839" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>Do Ty</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">   .</t>
+  </si>
+  <si>
+    <t>PT.RENTOKIL INDONESIA</t>
+  </si>
+  <si>
+    <t>PEMBAYARAN RENTOKIL MAJA 2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1075,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,68 +1380,202 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>24002659</v>
+      </c>
+      <c r="D3">
+        <v>1204</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45349</v>
+      </c>
       <c r="F3" t="s">
         <v>67</v>
       </c>
       <c r="G3">
-        <v>60.12</v>
+        <v>139.21</v>
       </c>
       <c r="H3">
-        <v>60.12</v>
+        <v>139.21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
       </c>
       <c r="L3" s="2">
-        <v>950000</v>
+        <v>2200000</v>
       </c>
       <c r="N3" s="2">
-        <v>950000</v>
+        <v>2200000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3">
+        <v>15803</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3">
+        <v>2105873</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
       </c>
       <c r="AG3">
         <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3">
+        <v>55117880</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3">
+        <v>24.20903406</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3">
+        <v>1204</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX3">
+        <v>24001172</v>
+      </c>
+      <c r="AY3">
+        <v>810110</v>
+      </c>
+      <c r="AZ3">
+        <v>1204.8101099999999</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>60.12</v>
+        <v>199.33</v>
       </c>
       <c r="H4">
-        <v>60.12</v>
+        <v>199.33</v>
       </c>
       <c r="L4" s="2">
-        <v>950000</v>
+        <v>3150000</v>
       </c>
       <c r="N4" s="2">
-        <v>950000</v>
+        <v>3150000</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>60.12</v>
+        <v>199.33</v>
       </c>
       <c r="H5">
-        <v>60.12</v>
+        <v>199.33</v>
       </c>
       <c r="L5" s="2">
-        <v>950000</v>
+        <v>3150000</v>
       </c>
       <c r="N5" s="2">
-        <v>950000</v>
+        <v>3150000</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>199.33</v>
+      </c>
+      <c r="H6">
+        <v>199.33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
